--- a/storage/imports/variants.xlsx
+++ b/storage/imports/variants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -403,6 +403,9 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -431,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -467,6 +470,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10266,11 +10272,11 @@
     </row>
     <row r="239">
       <c r="A239" s="3">
-        <f t="shared" ref="A239:A241" si="16">A238+1</f>
+        <f t="shared" ref="A239:A244" si="16">A238+1</f>
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <f t="shared" ref="B239:B241" si="17">B238</f>
+        <f t="shared" ref="B239:B244" si="17">B238</f>
         <v>2</v>
       </c>
       <c r="C239" s="3">
@@ -10285,11 +10291,11 @@
         <v>74000</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" ref="F239:F241" si="20">E239*90%</f>
+        <f t="shared" ref="F239:F244" si="20">E239*90%</f>
         <v>66600</v>
       </c>
       <c r="G239" s="3">
-        <f t="shared" ref="G239:G241" si="21">E239*5%</f>
+        <f t="shared" ref="G239:G244" si="21">E239*5%</f>
         <v>3700</v>
       </c>
       <c r="H239" s="3">
@@ -10397,6 +10403,143 @@
       <c r="L241" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ropgat4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3">
+        <f t="shared" si="16"/>
+        <v>244</v>
+      </c>
+      <c r="B242" s="2">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="C242" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E242" s="4">
+        <v>500000.0</v>
+      </c>
+      <c r="F242" s="3">
+        <f t="shared" si="20"/>
+        <v>450000</v>
+      </c>
+      <c r="G242" s="3">
+        <f t="shared" si="21"/>
+        <v>25000</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I242" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J242" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K242" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="L242" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M242" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3">
+        <f t="shared" si="16"/>
+        <v>245</v>
+      </c>
+      <c r="B243" s="2">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="C243" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E243" s="4">
+        <v>300000.0</v>
+      </c>
+      <c r="F243" s="3">
+        <f t="shared" si="20"/>
+        <v>270000</v>
+      </c>
+      <c r="G243" s="3">
+        <f t="shared" si="21"/>
+        <v>15000</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I243" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K243" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="L243" s="5" t="str">
+        <f t="shared" ref="L243:L244" si="23">D243</f>
+        <v>12 dias al mes (3 dias a la semana)</v>
+      </c>
+      <c r="M243" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3">
+        <f t="shared" si="16"/>
+        <v>246</v>
+      </c>
+      <c r="B244" s="2">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="C244" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E244" s="4">
+        <v>250000.0</v>
+      </c>
+      <c r="F244" s="3">
+        <f t="shared" si="20"/>
+        <v>225000</v>
+      </c>
+      <c r="G244" s="3">
+        <f t="shared" si="21"/>
+        <v>12500</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I244" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J244" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K244" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="L244" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>8 dias al mes (2 dias por semana)</v>
+      </c>
+      <c r="M244" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
